--- a/testdata/SampleTestData.xlsx
+++ b/testdata/SampleTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="17840" windowHeight="16500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="820" yWindow="20" windowWidth="17840" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>First name</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>john123</t>
+  </si>
+  <si>
+    <t>Johne</t>
+  </si>
+  <si>
+    <t>johne123</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>james123</t>
+  </si>
+  <si>
+    <t>Johnedoe</t>
+  </si>
+  <si>
+    <t>Jamessdoe</t>
   </si>
 </sst>
 </file>
@@ -104,8 +122,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -113,9 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,7 +487,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -509,8 +531,40 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18"/>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18"/>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="18"/>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="18"/>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18"/>
